--- a/정원/project_3/2.신설지청포함_기초_자료1.xlsx
+++ b/정원/project_3/2.신설지청포함_기초_자료1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,46 +3193,6 @@
         <v>236516388</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>01-2</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>서울청</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>서울서초</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>지청</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>서울 서초구, 서울 중구</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>서울서초지청</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
